--- a/03_datos_limpios/homicidios_.xlsx
+++ b/03_datos_limpios/homicidios_.xlsx
@@ -498,7 +498,7 @@
         <v>44943</v>
       </c>
       <c r="B18" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -514,7 +514,7 @@
         <v>44945</v>
       </c>
       <c r="B20" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -530,7 +530,7 @@
         <v>44947</v>
       </c>
       <c r="B22" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -538,7 +538,7 @@
         <v>44948</v>
       </c>
       <c r="B23" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -554,7 +554,7 @@
         <v>44950</v>
       </c>
       <c r="B25" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -562,7 +562,7 @@
         <v>44951</v>
       </c>
       <c r="B26" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -570,7 +570,7 @@
         <v>44952</v>
       </c>
       <c r="B27" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
@@ -578,7 +578,7 @@
         <v>44953</v>
       </c>
       <c r="B28" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -586,7 +586,7 @@
         <v>44954</v>
       </c>
       <c r="B29" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
@@ -610,7 +610,7 @@
         <v>44957</v>
       </c>
       <c r="B32" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -626,7 +626,7 @@
         <v>44959</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
@@ -658,7 +658,7 @@
         <v>44963</v>
       </c>
       <c r="B38" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39">
@@ -682,7 +682,7 @@
         <v>44966</v>
       </c>
       <c r="B41" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -690,7 +690,7 @@
         <v>44967</v>
       </c>
       <c r="B42" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
@@ -698,7 +698,7 @@
         <v>44968</v>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -706,7 +706,7 @@
         <v>44969</v>
       </c>
       <c r="B44" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
@@ -714,7 +714,7 @@
         <v>44970</v>
       </c>
       <c r="B45" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
@@ -722,7 +722,7 @@
         <v>44971</v>
       </c>
       <c r="B46" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -730,7 +730,7 @@
         <v>44972</v>
       </c>
       <c r="B47" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48">
@@ -738,7 +738,7 @@
         <v>44973</v>
       </c>
       <c r="B48" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49">
@@ -746,7 +746,7 @@
         <v>44974</v>
       </c>
       <c r="B49" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
@@ -754,7 +754,7 @@
         <v>44975</v>
       </c>
       <c r="B50" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
@@ -762,7 +762,7 @@
         <v>44976</v>
       </c>
       <c r="B51" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
@@ -770,7 +770,7 @@
         <v>44977</v>
       </c>
       <c r="B52" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -786,7 +786,7 @@
         <v>44979</v>
       </c>
       <c r="B54" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
@@ -794,7 +794,7 @@
         <v>44980</v>
       </c>
       <c r="B55" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -802,7 +802,7 @@
         <v>44981</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
@@ -810,7 +810,7 @@
         <v>44982</v>
       </c>
       <c r="B57" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58">
@@ -818,7 +818,7 @@
         <v>44983</v>
       </c>
       <c r="B58" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -826,7 +826,7 @@
         <v>44984</v>
       </c>
       <c r="B59" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
@@ -834,7 +834,7 @@
         <v>44985</v>
       </c>
       <c r="B60" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61">
@@ -842,7 +842,7 @@
         <v>44986</v>
       </c>
       <c r="B61" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
@@ -850,7 +850,7 @@
         <v>44987</v>
       </c>
       <c r="B62" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63">
@@ -858,7 +858,7 @@
         <v>44988</v>
       </c>
       <c r="B63" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64">
@@ -866,7 +866,7 @@
         <v>44989</v>
       </c>
       <c r="B64" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
@@ -874,7 +874,7 @@
         <v>44990</v>
       </c>
       <c r="B65" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66">
@@ -882,7 +882,7 @@
         <v>44991</v>
       </c>
       <c r="B66" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
@@ -890,7 +890,7 @@
         <v>44992</v>
       </c>
       <c r="B67" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68">
@@ -898,7 +898,7 @@
         <v>44993</v>
       </c>
       <c r="B68" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69">
@@ -906,7 +906,7 @@
         <v>44994</v>
       </c>
       <c r="B69" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70">
@@ -914,7 +914,7 @@
         <v>44995</v>
       </c>
       <c r="B70" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71">
@@ -922,7 +922,7 @@
         <v>44996</v>
       </c>
       <c r="B71" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72">
@@ -930,7 +930,7 @@
         <v>44997</v>
       </c>
       <c r="B72" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73">
@@ -938,7 +938,7 @@
         <v>44998</v>
       </c>
       <c r="B73" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74">
@@ -946,7 +946,7 @@
         <v>44999</v>
       </c>
       <c r="B74" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75">
@@ -954,7 +954,7 @@
         <v>45000</v>
       </c>
       <c r="B75" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76">
@@ -962,7 +962,7 @@
         <v>45001</v>
       </c>
       <c r="B76" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77">
@@ -970,7 +970,7 @@
         <v>45002</v>
       </c>
       <c r="B77" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
@@ -978,7 +978,7 @@
         <v>45003</v>
       </c>
       <c r="B78" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79">
@@ -986,7 +986,7 @@
         <v>45004</v>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80">
@@ -994,7 +994,7 @@
         <v>45005</v>
       </c>
       <c r="B80" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81">
@@ -1002,7 +1002,87 @@
         <v>45006</v>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>45007</v>
+      </c>
+      <c r="B82" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>45008</v>
+      </c>
+      <c r="B83" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>45009</v>
+      </c>
+      <c r="B84" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>45010</v>
+      </c>
+      <c r="B85" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>45011</v>
+      </c>
+      <c r="B86" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>45012</v>
+      </c>
+      <c r="B87" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B88" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45014</v>
+      </c>
+      <c r="B89" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>45015</v>
+      </c>
+      <c r="B90" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B91" t="n">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
